--- a/resources/public/files/suite.amiba.data.doc.xlsx
+++ b/resources/public/files/suite.amiba.data.doc.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\project\suite\suite-amiba\resources\assets\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\project\suite\suite-cbo\resources\public\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="52">
   <si>
     <t>doc_no</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -234,6 +234,19 @@
   <si>
     <t>-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-01-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-01-02</t>
+  </si>
+  <si>
+    <t>2018-01-03</t>
+  </si>
+  <si>
+    <t>2018-01-04</t>
   </si>
 </sst>
 </file>
@@ -359,7 +372,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -367,7 +380,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -385,6 +397,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -732,84 +748,84 @@
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="J2" sqref="J2"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.375" style="14" customWidth="1"/>
+    <col min="1" max="1" width="5.375" style="13" customWidth="1"/>
     <col min="2" max="2" width="14.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.75" style="13" customWidth="1"/>
     <col min="4" max="4" width="11.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.875" style="1" customWidth="1"/>
     <col min="6" max="6" width="10.875" style="1" customWidth="1"/>
     <col min="7" max="7" width="11.25" style="1" customWidth="1"/>
     <col min="8" max="8" width="16.75" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.75" style="7" customWidth="1"/>
-    <col min="11" max="11" width="24.75" style="7" customWidth="1"/>
-    <col min="12" max="12" width="22.25" style="7" customWidth="1"/>
-    <col min="13" max="13" width="27.25" style="7" customWidth="1"/>
-    <col min="14" max="14" width="15.125" style="7" customWidth="1"/>
-    <col min="15" max="15" width="14.5" style="7" customWidth="1"/>
+    <col min="10" max="10" width="14.75" style="6" customWidth="1"/>
+    <col min="11" max="11" width="24.75" style="6" customWidth="1"/>
+    <col min="12" max="12" width="22.25" style="6" customWidth="1"/>
+    <col min="13" max="13" width="27.25" style="6" customWidth="1"/>
+    <col min="14" max="14" width="15.125" style="6" customWidth="1"/>
+    <col min="15" max="15" width="14.5" style="6" customWidth="1"/>
     <col min="16" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:15" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="8" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>44</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="14" t="s">
         <v>24</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -850,16 +866,16 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="13" t="s">
         <v>45</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="5">
-        <v>42887</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="C3" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -879,16 +895,16 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="13" t="s">
         <v>45</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="5">
-        <v>42887</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="C4" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -908,16 +924,16 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
         <v>46</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="5">
-        <v>42887</v>
-      </c>
-      <c r="D5" s="6" t="s">
+      <c r="C5" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -935,24 +951,24 @@
       <c r="I5" s="1">
         <v>112</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="L5" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="O5" s="7">
+      <c r="O5" s="6">
         <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="13" t="s">
         <v>47</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="5">
-        <v>42887</v>
-      </c>
-      <c r="D6" s="6" t="s">
+      <c r="C6" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -970,18 +986,18 @@
       <c r="I6" s="1">
         <v>112</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="L6" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="O6" s="7">
+      <c r="O6" s="6">
         <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="K15" s="12"/>
+      <c r="K15" s="11"/>
     </row>
     <row r="17" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H17" s="11"/>
+      <c r="H17" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
